--- a/Data_clean/MCAS/Estados_US/Edos_USA_2015/NEW_HAMPSHIRE_2015.xlsx
+++ b/Data_clean/MCAS/Estados_US/Edos_USA_2015/NEW_HAMPSHIRE_2015.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D100"/>
+  <dimension ref="A1:D94"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -360,22 +360,22 @@
     <row r="1" s="1" customFormat="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Estado de Origen</t>
+          <t>mx_state</t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Municipio Origen</t>
+          <t>mx_municipality</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>Número de Matrículas</t>
+          <t>n_matriculas</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>Porcentaje de Matrículas</t>
+          <t>pct_matriculas</t>
         </is>
       </c>
     </row>
@@ -527,7 +527,7 @@
     <row r="12">
       <c r="B12" t="inlineStr">
         <is>
-          <t>Villa de Álvarez</t>
+          <t>Villa De Álvarez</t>
         </is>
       </c>
       <c r="C12">
@@ -553,7 +553,7 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Ciudad de México</t>
+          <t>Ciudad De México</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -768,7 +768,7 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>Acapulco de Juárez</t>
+          <t>Acapulco De Juárez</t>
         </is>
       </c>
       <c r="C29">
@@ -794,7 +794,7 @@
     <row r="31">
       <c r="B31" t="inlineStr">
         <is>
-          <t>Coahuayutla de José María Izazaga</t>
+          <t>Coahuayutla De José María Izazaga</t>
         </is>
       </c>
       <c r="C31">
@@ -846,7 +846,7 @@
     <row r="35">
       <c r="B35" t="inlineStr">
         <is>
-          <t>Mártir de Cuilapan</t>
+          <t>Mártir De Cuilapan</t>
         </is>
       </c>
       <c r="C35">
@@ -885,7 +885,7 @@
     <row r="38">
       <c r="B38" t="inlineStr">
         <is>
-          <t>Tlapa de Comonfort</t>
+          <t>Tlapa De Comonfort</t>
         </is>
       </c>
       <c r="C38">
@@ -929,7 +929,7 @@
     <row r="41">
       <c r="B41" t="inlineStr">
         <is>
-          <t>Pachuca de Soto</t>
+          <t>Pachuca De Soto</t>
         </is>
       </c>
       <c r="C41">
@@ -942,7 +942,7 @@
     <row r="42">
       <c r="B42" t="inlineStr">
         <is>
-          <t>Progreso de Obregón</t>
+          <t>Progreso De Obregón</t>
         </is>
       </c>
       <c r="C42">
@@ -999,7 +999,7 @@
     <row r="46">
       <c r="B46" t="inlineStr">
         <is>
-          <t>Tepatitlán de Morelos</t>
+          <t>Tepatitlán De Morelos</t>
         </is>
       </c>
       <c r="C46">
@@ -1038,7 +1038,7 @@
     <row r="49">
       <c r="B49" t="inlineStr">
         <is>
-          <t>Unión de Tula</t>
+          <t>Unión De Tula</t>
         </is>
       </c>
       <c r="C49">
@@ -1191,7 +1191,7 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>Heroica Ciudad de Ejutla de Crespo</t>
+          <t>Heroica Ciudad De Ejutla De Crespo</t>
         </is>
       </c>
       <c r="C60">
@@ -1256,7 +1256,7 @@
     <row r="65">
       <c r="B65" t="inlineStr">
         <is>
-          <t>Tlacolula de Matamoros</t>
+          <t>Tlacolula De Matamoros</t>
         </is>
       </c>
       <c r="C65">
@@ -1318,7 +1318,7 @@
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>Cadereyta de Montes</t>
+          <t>Cadereyta De Montes</t>
         </is>
       </c>
       <c r="C69">
@@ -1344,7 +1344,7 @@
     <row r="71">
       <c r="B71" t="inlineStr">
         <is>
-          <t>Landa de Matamoros</t>
+          <t>Landa De Matamoros</t>
         </is>
       </c>
       <c r="C71">
@@ -1629,7 +1629,7 @@
     <row r="91">
       <c r="B91" t="inlineStr">
         <is>
-          <t>Noria de Ángeles</t>
+          <t>Noria De Ángeles</t>
         </is>
       </c>
       <c r="C91">
@@ -1676,41 +1676,6 @@
       </c>
       <c r="D94">
         <v>1</v>
-      </c>
-    </row>
-    <row r="96">
-      <c r="A96" t="inlineStr">
-        <is>
-          <t>Tamaño de la muestra: 1,114,005</t>
-        </is>
-      </c>
-    </row>
-    <row r="97">
-      <c r="A97" t="inlineStr">
-        <is>
-          <t>Fuente: Expedición de Matrículas Consulares de Alta Seguridad en los Consulados de México en E.E.U.U.</t>
-        </is>
-      </c>
-    </row>
-    <row r="98">
-      <c r="A98" t="inlineStr">
-        <is>
-          <t>Elaborado por: Análisis de Información, Instituto de los Mexicanos en el Exterior</t>
-        </is>
-      </c>
-    </row>
-    <row r="99">
-      <c r="A99" t="inlineStr">
-        <is>
-          <t>Secretaría de Relaciones Exteriores</t>
-        </is>
-      </c>
-    </row>
-    <row r="100">
-      <c r="A100" t="inlineStr">
-        <is>
-          <t>Junio de 2016</t>
-        </is>
       </c>
     </row>
   </sheetData>

--- a/Data_clean/MCAS/Estados_US/Edos_USA_2015/NEW_HAMPSHIRE_2015.xlsx
+++ b/Data_clean/MCAS/Estados_US/Edos_USA_2015/NEW_HAMPSHIRE_2015.xlsx
@@ -398,6 +398,11 @@
       </c>
     </row>
     <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Baja California</t>
+        </is>
+      </c>
       <c r="B3" t="inlineStr">
         <is>
           <t>Total</t>
@@ -429,6 +434,11 @@
       </c>
     </row>
     <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B5" t="inlineStr">
         <is>
           <t>El Porvenir</t>
@@ -442,6 +452,11 @@
       </c>
     </row>
     <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B6" t="inlineStr">
         <is>
           <t>Las Margaritas</t>
@@ -455,6 +470,11 @@
       </c>
     </row>
     <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B7" t="inlineStr">
         <is>
           <t>Pichucalco</t>
@@ -468,6 +488,11 @@
       </c>
     </row>
     <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B8" t="inlineStr">
         <is>
           <t>Tapachula</t>
@@ -481,6 +506,11 @@
       </c>
     </row>
     <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B9" t="inlineStr">
         <is>
           <t>Total</t>
@@ -512,6 +542,11 @@
       </c>
     </row>
     <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Colima</t>
+        </is>
+      </c>
       <c r="B11" t="inlineStr">
         <is>
           <t>Manzanillo</t>
@@ -525,6 +560,11 @@
       </c>
     </row>
     <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Colima</t>
+        </is>
+      </c>
       <c r="B12" t="inlineStr">
         <is>
           <t>Villa De Álvarez</t>
@@ -538,6 +578,11 @@
       </c>
     </row>
     <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>Colima</t>
+        </is>
+      </c>
       <c r="B13" t="inlineStr">
         <is>
           <t>Total</t>
@@ -569,6 +614,11 @@
       </c>
     </row>
     <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>Ciudad De México</t>
+        </is>
+      </c>
       <c r="B15" t="inlineStr">
         <is>
           <t>Coyoacán</t>
@@ -582,6 +632,11 @@
       </c>
     </row>
     <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Ciudad De México</t>
+        </is>
+      </c>
       <c r="B16" t="inlineStr">
         <is>
           <t>Gustavo A. Madero</t>
@@ -595,6 +650,11 @@
       </c>
     </row>
     <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>Ciudad De México</t>
+        </is>
+      </c>
       <c r="B17" t="inlineStr">
         <is>
           <t>Iztacalco</t>
@@ -608,6 +668,11 @@
       </c>
     </row>
     <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Ciudad De México</t>
+        </is>
+      </c>
       <c r="B18" t="inlineStr">
         <is>
           <t>Total</t>
@@ -639,6 +704,11 @@
       </c>
     </row>
     <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>Durango</t>
+        </is>
+      </c>
       <c r="B20" t="inlineStr">
         <is>
           <t>Guadalupe Victoria</t>
@@ -652,6 +722,11 @@
       </c>
     </row>
     <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>Durango</t>
+        </is>
+      </c>
       <c r="B21" t="inlineStr">
         <is>
           <t>Vicente Guerrero</t>
@@ -665,6 +740,11 @@
       </c>
     </row>
     <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>Durango</t>
+        </is>
+      </c>
       <c r="B22" t="inlineStr">
         <is>
           <t>Total</t>
@@ -696,6 +776,11 @@
       </c>
     </row>
     <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>Guanajuato</t>
+        </is>
+      </c>
       <c r="B24" t="inlineStr">
         <is>
           <t>Cortazar</t>
@@ -709,6 +794,11 @@
       </c>
     </row>
     <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>Guanajuato</t>
+        </is>
+      </c>
       <c r="B25" t="inlineStr">
         <is>
           <t>Ocampo</t>
@@ -722,6 +812,11 @@
       </c>
     </row>
     <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>Guanajuato</t>
+        </is>
+      </c>
       <c r="B26" t="inlineStr">
         <is>
           <t>San Felipe</t>
@@ -735,6 +830,11 @@
       </c>
     </row>
     <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>Guanajuato</t>
+        </is>
+      </c>
       <c r="B27" t="inlineStr">
         <is>
           <t>Tarimoro</t>
@@ -748,6 +848,11 @@
       </c>
     </row>
     <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>Guanajuato</t>
+        </is>
+      </c>
       <c r="B28" t="inlineStr">
         <is>
           <t>Total</t>
@@ -779,6 +884,11 @@
       </c>
     </row>
     <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B30" t="inlineStr">
         <is>
           <t>Ahuacuotzingo</t>
@@ -792,6 +902,11 @@
       </c>
     </row>
     <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B31" t="inlineStr">
         <is>
           <t>Coahuayutla De José María Izazaga</t>
@@ -805,6 +920,11 @@
       </c>
     </row>
     <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B32" t="inlineStr">
         <is>
           <t>Cuajinicuilapa</t>
@@ -818,6 +938,11 @@
       </c>
     </row>
     <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B33" t="inlineStr">
         <is>
           <t>Florencio Villarreal</t>
@@ -831,6 +956,11 @@
       </c>
     </row>
     <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B34" t="inlineStr">
         <is>
           <t>Igualapa</t>
@@ -844,6 +974,11 @@
       </c>
     </row>
     <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B35" t="inlineStr">
         <is>
           <t>Mártir De Cuilapan</t>
@@ -857,6 +992,11 @@
       </c>
     </row>
     <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B36" t="inlineStr">
         <is>
           <t>Ometepec</t>
@@ -870,6 +1010,11 @@
       </c>
     </row>
     <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B37" t="inlineStr">
         <is>
           <t>San Luis Acatlán</t>
@@ -883,6 +1028,11 @@
       </c>
     </row>
     <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B38" t="inlineStr">
         <is>
           <t>Tlapa De Comonfort</t>
@@ -896,6 +1046,11 @@
       </c>
     </row>
     <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B39" t="inlineStr">
         <is>
           <t>Total</t>
@@ -927,6 +1082,11 @@
       </c>
     </row>
     <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>Hidalgo</t>
+        </is>
+      </c>
       <c r="B41" t="inlineStr">
         <is>
           <t>Pachuca De Soto</t>
@@ -940,6 +1100,11 @@
       </c>
     </row>
     <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>Hidalgo</t>
+        </is>
+      </c>
       <c r="B42" t="inlineStr">
         <is>
           <t>Progreso De Obregón</t>
@@ -953,6 +1118,11 @@
       </c>
     </row>
     <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>Hidalgo</t>
+        </is>
+      </c>
       <c r="B43" t="inlineStr">
         <is>
           <t>Total</t>
@@ -984,6 +1154,11 @@
       </c>
     </row>
     <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B45" t="inlineStr">
         <is>
           <t>Huejúcar</t>
@@ -997,6 +1172,11 @@
       </c>
     </row>
     <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B46" t="inlineStr">
         <is>
           <t>Tepatitlán De Morelos</t>
@@ -1010,6 +1190,11 @@
       </c>
     </row>
     <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B47" t="inlineStr">
         <is>
           <t>Teuchitlán</t>
@@ -1023,6 +1208,11 @@
       </c>
     </row>
     <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B48" t="inlineStr">
         <is>
           <t>Tomatlán</t>
@@ -1036,6 +1226,11 @@
       </c>
     </row>
     <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B49" t="inlineStr">
         <is>
           <t>Unión De Tula</t>
@@ -1049,6 +1244,11 @@
       </c>
     </row>
     <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B50" t="inlineStr">
         <is>
           <t>Zapotiltic</t>
@@ -1062,6 +1262,11 @@
       </c>
     </row>
     <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B51" t="inlineStr">
         <is>
           <t>Zapotlanejo</t>
@@ -1075,6 +1280,11 @@
       </c>
     </row>
     <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B52" t="inlineStr">
         <is>
           <t>Total</t>
@@ -1106,6 +1316,11 @@
       </c>
     </row>
     <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>Michoacán</t>
+        </is>
+      </c>
       <c r="B54" t="inlineStr">
         <is>
           <t>Hidalgo</t>
@@ -1119,6 +1334,11 @@
       </c>
     </row>
     <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>Michoacán</t>
+        </is>
+      </c>
       <c r="B55" t="inlineStr">
         <is>
           <t>Nuevo Parangaricutiro</t>
@@ -1132,6 +1352,11 @@
       </c>
     </row>
     <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>Michoacán</t>
+        </is>
+      </c>
       <c r="B56" t="inlineStr">
         <is>
           <t>Salvador Escalante</t>
@@ -1145,6 +1370,11 @@
       </c>
     </row>
     <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>Michoacán</t>
+        </is>
+      </c>
       <c r="B57" t="inlineStr">
         <is>
           <t>Uruapan</t>
@@ -1158,6 +1388,11 @@
       </c>
     </row>
     <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>Michoacán</t>
+        </is>
+      </c>
       <c r="B58" t="inlineStr">
         <is>
           <t>Ziracuaretiro</t>
@@ -1171,6 +1406,11 @@
       </c>
     </row>
     <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>Michoacán</t>
+        </is>
+      </c>
       <c r="B59" t="inlineStr">
         <is>
           <t>Total</t>
@@ -1202,6 +1442,11 @@
       </c>
     </row>
     <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B61" t="inlineStr">
         <is>
           <t>San Agustín Loxicha</t>
@@ -1215,6 +1460,11 @@
       </c>
     </row>
     <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B62" t="inlineStr">
         <is>
           <t>San Antonino Monte Verde</t>
@@ -1228,6 +1478,11 @@
       </c>
     </row>
     <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B63" t="inlineStr">
         <is>
           <t>Santa Cruz Zenzontepec</t>
@@ -1241,6 +1496,11 @@
       </c>
     </row>
     <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B64" t="inlineStr">
         <is>
           <t>Santiago Ihuitlán Plumas</t>
@@ -1254,6 +1514,11 @@
       </c>
     </row>
     <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B65" t="inlineStr">
         <is>
           <t>Tlacolula De Matamoros</t>
@@ -1267,6 +1532,11 @@
       </c>
     </row>
     <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B66" t="inlineStr">
         <is>
           <t>Total</t>
@@ -1298,6 +1568,11 @@
       </c>
     </row>
     <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B68" t="inlineStr">
         <is>
           <t>Total</t>
@@ -1329,6 +1604,11 @@
       </c>
     </row>
     <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>Querétaro</t>
+        </is>
+      </c>
       <c r="B70" t="inlineStr">
         <is>
           <t>El Marqués</t>
@@ -1342,6 +1622,11 @@
       </c>
     </row>
     <row r="71">
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>Querétaro</t>
+        </is>
+      </c>
       <c r="B71" t="inlineStr">
         <is>
           <t>Landa De Matamoros</t>
@@ -1355,6 +1640,11 @@
       </c>
     </row>
     <row r="72">
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>Querétaro</t>
+        </is>
+      </c>
       <c r="B72" t="inlineStr">
         <is>
           <t>Pedro Escobedo</t>
@@ -1368,6 +1658,11 @@
       </c>
     </row>
     <row r="73">
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>Querétaro</t>
+        </is>
+      </c>
       <c r="B73" t="inlineStr">
         <is>
           <t>Querétaro</t>
@@ -1381,6 +1676,11 @@
       </c>
     </row>
     <row r="74">
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>Querétaro</t>
+        </is>
+      </c>
       <c r="B74" t="inlineStr">
         <is>
           <t>Total</t>
@@ -1412,6 +1712,11 @@
       </c>
     </row>
     <row r="76">
+      <c r="A76" t="inlineStr">
+        <is>
+          <t>San Luis Potosí</t>
+        </is>
+      </c>
       <c r="B76" t="inlineStr">
         <is>
           <t>Ciudad Valles</t>
@@ -1425,6 +1730,11 @@
       </c>
     </row>
     <row r="77">
+      <c r="A77" t="inlineStr">
+        <is>
+          <t>San Luis Potosí</t>
+        </is>
+      </c>
       <c r="B77" t="inlineStr">
         <is>
           <t>San Luis Potosí</t>
@@ -1438,6 +1748,11 @@
       </c>
     </row>
     <row r="78">
+      <c r="A78" t="inlineStr">
+        <is>
+          <t>San Luis Potosí</t>
+        </is>
+      </c>
       <c r="B78" t="inlineStr">
         <is>
           <t>Xilitla</t>
@@ -1451,6 +1766,11 @@
       </c>
     </row>
     <row r="79">
+      <c r="A79" t="inlineStr">
+        <is>
+          <t>San Luis Potosí</t>
+        </is>
+      </c>
       <c r="B79" t="inlineStr">
         <is>
           <t>Total</t>
@@ -1482,6 +1802,11 @@
       </c>
     </row>
     <row r="81">
+      <c r="A81" t="inlineStr">
+        <is>
+          <t>Sonora</t>
+        </is>
+      </c>
       <c r="B81" t="inlineStr">
         <is>
           <t>Total</t>
@@ -1513,6 +1838,11 @@
       </c>
     </row>
     <row r="83">
+      <c r="A83" t="inlineStr">
+        <is>
+          <t>Tamaulipas</t>
+        </is>
+      </c>
       <c r="B83" t="inlineStr">
         <is>
           <t>El Mante</t>
@@ -1526,6 +1856,11 @@
       </c>
     </row>
     <row r="84">
+      <c r="A84" t="inlineStr">
+        <is>
+          <t>Tamaulipas</t>
+        </is>
+      </c>
       <c r="B84" t="inlineStr">
         <is>
           <t>Victoria</t>
@@ -1539,6 +1874,11 @@
       </c>
     </row>
     <row r="85">
+      <c r="A85" t="inlineStr">
+        <is>
+          <t>Tamaulipas</t>
+        </is>
+      </c>
       <c r="B85" t="inlineStr">
         <is>
           <t>Total</t>
@@ -1570,6 +1910,11 @@
       </c>
     </row>
     <row r="87">
+      <c r="A87" t="inlineStr">
+        <is>
+          <t>Veracruz</t>
+        </is>
+      </c>
       <c r="B87" t="inlineStr">
         <is>
           <t>Coatzacoalcos</t>
@@ -1583,6 +1928,11 @@
       </c>
     </row>
     <row r="88">
+      <c r="A88" t="inlineStr">
+        <is>
+          <t>Veracruz</t>
+        </is>
+      </c>
       <c r="B88" t="inlineStr">
         <is>
           <t>Río Blanco</t>
@@ -1596,6 +1946,11 @@
       </c>
     </row>
     <row r="89">
+      <c r="A89" t="inlineStr">
+        <is>
+          <t>Veracruz</t>
+        </is>
+      </c>
       <c r="B89" t="inlineStr">
         <is>
           <t>Total</t>
@@ -1627,6 +1982,11 @@
       </c>
     </row>
     <row r="91">
+      <c r="A91" t="inlineStr">
+        <is>
+          <t>Zacatecas</t>
+        </is>
+      </c>
       <c r="B91" t="inlineStr">
         <is>
           <t>Noria De Ángeles</t>
@@ -1640,6 +2000,11 @@
       </c>
     </row>
     <row r="92">
+      <c r="A92" t="inlineStr">
+        <is>
+          <t>Zacatecas</t>
+        </is>
+      </c>
       <c r="B92" t="inlineStr">
         <is>
           <t>Sombrerete</t>
@@ -1653,6 +2018,11 @@
       </c>
     </row>
     <row r="93">
+      <c r="A93" t="inlineStr">
+        <is>
+          <t>Zacatecas</t>
+        </is>
+      </c>
       <c r="B93" t="inlineStr">
         <is>
           <t>Total</t>
